--- a/manage/猫咪档案.xlsx
+++ b/manage/猫咪档案.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/circle/Documents/GitHub/miniprogram/manage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/circle/Documents/GitHub/yan-yuan-mao-su-cha-shou-ce/manage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E99E6-5095-984D-A820-B490988A1501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F680876-9EC8-A14D-92F8-764F90C97330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="45000" windowHeight="24380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="34320" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>建立档案：2019-03-30</t>
   </si>
@@ -302,6 +302,13 @@
   </si>
   <si>
     <t>2019-07</t>
+  </si>
+  <si>
+    <t>送养</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>离世</t>
   </si>
 </sst>
 </file>
@@ -641,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -856,6 +863,9 @@
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1157,9 +1167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="118" zoomScaleNormal="111" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="111" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11:H14"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1230,7 +1240,7 @@
       <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1262,7 +1272,7 @@
         <v>12</v>
       </c>
       <c r="L2" s="51"/>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="79" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="62" t="s">
@@ -1280,7 +1290,7 @@
       <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
         <v>15</v>
@@ -1302,7 +1312,7 @@
         <v>18</v>
       </c>
       <c r="L3" s="49"/>
-      <c r="M3" s="79"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="62" t="s">
         <v>19</v>
       </c>
@@ -1318,7 +1328,7 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="76"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
@@ -1344,7 +1354,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="49"/>
-      <c r="M4" s="79"/>
+      <c r="M4" s="80"/>
       <c r="N4" s="62" t="s">
         <v>24</v>
       </c>
@@ -1361,7 +1371,7 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1">
-      <c r="A5" s="76"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="5"/>
       <c r="C5" s="22">
         <v>2</v>
@@ -1376,7 +1386,9 @@
         <v>27</v>
       </c>
       <c r="G5" s="44"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="73" t="s">
+        <v>92</v>
+      </c>
       <c r="I5" s="40"/>
       <c r="J5" s="5">
         <v>3</v>
@@ -1385,7 +1397,7 @@
         <v>28</v>
       </c>
       <c r="L5" s="49"/>
-      <c r="M5" s="79" t="s">
+      <c r="M5" s="80" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="5"/>
@@ -1402,7 +1414,7 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="76"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="5"/>
       <c r="C6" s="22">
         <v>3</v>
@@ -1415,7 +1427,9 @@
         <v>31</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="39" t="s">
+        <v>93</v>
+      </c>
       <c r="I6" s="40"/>
       <c r="J6" s="5">
         <v>2</v>
@@ -1424,7 +1438,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="49"/>
-      <c r="M6" s="79"/>
+      <c r="M6" s="80"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="45"/>
@@ -1439,7 +1453,7 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="76"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="5"/>
       <c r="C7" s="22">
         <v>4</v>
@@ -1461,7 +1475,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="49"/>
-      <c r="M7" s="79" t="s">
+      <c r="M7" s="80" t="s">
         <v>36</v>
       </c>
       <c r="N7" s="5"/>
@@ -1478,7 +1492,7 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A8" s="76"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="17"/>
       <c r="C8" s="25">
         <v>5</v>
@@ -1500,7 +1514,7 @@
         <v>39</v>
       </c>
       <c r="L8" s="49"/>
-      <c r="M8" s="79"/>
+      <c r="M8" s="80"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="45"/>
@@ -1515,7 +1529,7 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="77"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="27" t="s">
         <v>40</v>
       </c>
@@ -1525,10 +1539,10 @@
       <c r="D9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="46" t="s">
         <v>44</v>
       </c>
